--- a/TE/TE_Analysis.xlsx
+++ b/TE/TE_Analysis.xlsx
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18.8</v>
+        <v>31.9</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17.5</v>
+        <v>29.6</v>
       </c>
       <c r="D3" t="n">
         <v>5</v>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>25.8</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14.5</v>
+        <v>24.9</v>
       </c>
       <c r="D5" t="n">
         <v>17</v>
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13.8</v>
+        <v>23.4</v>
       </c>
       <c r="D6" t="n">
         <v>-2</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13.6</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
         <v>-4</v>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
         <v>-2</v>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>12.4</v>
+        <v>21</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
@@ -866,23 +866,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jake Ferguson (DAL)</t>
+          <t>Mark Andrews (BAL)</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11.6</v>
+        <v>19.6</v>
       </c>
       <c r="D10" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>45.40000000000001</v>
+        <v>27.7</v>
       </c>
       <c r="G10" t="n">
-        <v>11.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -890,19 +890,19 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="J10" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="K10" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L10" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -911,43 +911,43 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mark Andrews (BAL)</t>
+          <t>Jake Ferguson (DAL)</t>
         </is>
       </c>
       <c r="C11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>45.40000000000001</v>
+      </c>
+      <c r="G11" t="n">
         <v>11.4</v>
       </c>
-      <c r="D11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="G11" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>9 - 12</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="K11" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
@@ -956,23 +956,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Luke Musgrave (GB)</t>
+          <t>Tyler Conklin (NYJ)</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>11.2</v>
+        <v>19.1</v>
       </c>
       <c r="D12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E12" t="n">
         <v>4</v>
       </c>
-      <c r="E12" t="n">
-        <v>3</v>
-      </c>
       <c r="F12" t="n">
-        <v>29.3</v>
+        <v>37.7</v>
       </c>
       <c r="G12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -980,19 +980,19 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="J12" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="K12" t="n">
-        <v>47.7</v>
+        <v>46.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1001,40 +1001,40 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tyler Conklin (NYJ)</t>
+          <t>Dallas Goedert (PHI)</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>11.2</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>-2</v>
+        <v>37</v>
       </c>
       <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>8</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9 - 12</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
         <v>4</v>
       </c>
-      <c r="F13" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="G13" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5.2</v>
-      </c>
       <c r="K13" t="n">
-        <v>46.8</v>
+        <v>50</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1046,23 +1046,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Dallas Goedert (PHI)</t>
+          <t>Luke Musgrave (GB)</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>29.3</v>
       </c>
       <c r="G14" t="n">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1073,16 +1073,16 @@
         <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="K14" t="n">
-        <v>50</v>
+        <v>47.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15">
@@ -1091,23 +1091,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cole Kmet (CHI)</t>
+          <t>Cade Otton (TB)</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10.9</v>
+        <v>18.2</v>
       </c>
       <c r="D15" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>49.40000000000001</v>
+        <v>43.4</v>
       </c>
       <c r="G15" t="n">
-        <v>12.4</v>
+        <v>10.8</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1115,16 +1115,16 @@
         </is>
       </c>
       <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="n">
         <v>5.2</v>
       </c>
-      <c r="J15" t="n">
-        <v>6.5</v>
-      </c>
       <c r="K15" t="n">
-        <v>40.8</v>
+        <v>43.5</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="M15" t="n">
         <v>0.5</v>
@@ -1136,23 +1136,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cade Otton (TB)</t>
+          <t>Cole Kmet (CHI)</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10.8</v>
+        <v>18.2</v>
       </c>
       <c r="D16" t="n">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>43.4</v>
+        <v>49.40000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>10.8</v>
+        <v>12.4</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1160,16 +1160,16 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="J16" t="n">
-        <v>5.2</v>
+        <v>6.5</v>
       </c>
       <c r="K16" t="n">
-        <v>43.5</v>
+        <v>40.8</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M16" t="n">
         <v>0.5</v>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9.5</v>
+        <v>15.7</v>
       </c>
       <c r="D17" t="n">
         <v>-3</v>
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>15.4</v>
       </c>
       <c r="D18" t="n">
         <v>-4</v>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>8.800000000000001</v>
+        <v>15.1</v>
       </c>
       <c r="D19" t="n">
         <v>-2</v>
@@ -1320,7 +1320,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8.300000000000001</v>
+        <v>14.3</v>
       </c>
       <c r="D20" t="n">
         <v>8</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8.1</v>
+        <v>13.8</v>
       </c>
       <c r="D21" t="n">
         <v>4</v>
@@ -1406,23 +1406,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Jonnu Smith (ATL)</t>
+          <t>Hayden Hurst (CAR)</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>8</v>
+        <v>13.5</v>
       </c>
       <c r="D22" t="n">
+        <v>24</v>
+      </c>
+      <c r="E22" t="n">
         <v>2</v>
       </c>
-      <c r="E22" t="n">
-        <v>3</v>
-      </c>
       <c r="F22" t="n">
-        <v>22.1</v>
+        <v>10.8</v>
       </c>
       <c r="G22" t="n">
-        <v>7.4</v>
+        <v>5.4</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1433,16 +1433,16 @@
         <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>33.7</v>
+        <v>34</v>
       </c>
       <c r="L22" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1451,23 +1451,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Taysom Hill (NO)</t>
+          <t>Jonnu Smith (ATL)</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7.8</v>
+        <v>13.4</v>
       </c>
       <c r="D23" t="n">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>33</v>
+        <v>22.1</v>
       </c>
       <c r="G23" t="n">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>28.3</v>
+        <v>33.7</v>
       </c>
       <c r="L23" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="M23" t="n">
         <v>0.3</v>
@@ -1496,23 +1496,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hayden Hurst (CAR)</t>
+          <t>Taysom Hill (NO)</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7.8</v>
+        <v>12.6</v>
       </c>
       <c r="D24" t="n">
-        <v>22</v>
+        <v>-11</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
-        <v>10.8</v>
+        <v>33</v>
       </c>
       <c r="G24" t="n">
-        <v>5.4</v>
+        <v>11</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1520,19 +1520,19 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K24" t="n">
-        <v>34</v>
+        <v>28.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="25">
@@ -1541,23 +1541,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Juwan Johnson (NO)</t>
+          <t>Daniel Bellinger (NYG)</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>11.9</v>
       </c>
       <c r="D25" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>23.6</v>
+        <v>21.3</v>
       </c>
       <c r="G25" t="n">
-        <v>7.9</v>
+        <v>5.3</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1565,19 +1565,19 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="K25" t="n">
-        <v>25.3</v>
+        <v>30.8</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1586,23 +1586,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Daniel Bellinger (NYG)</t>
+          <t>Juwan Johnson (NO)</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6.9</v>
+        <v>11.7</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
-        <v>21.3</v>
+        <v>23.6</v>
       </c>
       <c r="G26" t="n">
-        <v>5.3</v>
+        <v>7.9</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1610,19 +1610,19 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="J26" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>30.8</v>
+        <v>25.3</v>
       </c>
       <c r="L26" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="27">
@@ -1631,23 +1631,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Michael Mayer (LV)</t>
+          <t>Chigoziem Okonkwo (TEN)</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6.6</v>
+        <v>11.2</v>
       </c>
       <c r="D27" t="n">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>27.3</v>
+        <v>21.6</v>
       </c>
       <c r="G27" t="n">
-        <v>6.8</v>
+        <v>5.4</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1658,16 +1658,16 @@
         <v>2.8</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K27" t="n">
-        <v>25.8</v>
+        <v>26.5</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1676,23 +1676,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chigoziem Okonkwo (TEN)</t>
+          <t>Michael Mayer (LV)</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6.5</v>
+        <v>11.1</v>
       </c>
       <c r="D28" t="n">
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
       </c>
       <c r="F28" t="n">
-        <v>21.6</v>
+        <v>27.3</v>
       </c>
       <c r="G28" t="n">
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1703,16 +1703,16 @@
         <v>2.8</v>
       </c>
       <c r="J28" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>26.5</v>
+        <v>25.8</v>
       </c>
       <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
         <v>0.2</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5.8</v>
+        <v>9.9</v>
       </c>
       <c r="D29" t="n">
         <v>11</v>
@@ -1766,23 +1766,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Hunter Henry (NE)</t>
+          <t>Isaiah Likely (BAL)</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5.4</v>
+        <v>9</v>
       </c>
       <c r="D30" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
-        <v>19</v>
+        <v>17.7</v>
       </c>
       <c r="G30" t="n">
-        <v>6.3</v>
+        <v>4.4</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1790,19 +1790,19 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="K30" t="n">
-        <v>20</v>
+        <v>21.8</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1811,23 +1811,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Isaiah Likely (BAL)</t>
+          <t>Hunter Henry (NE)</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5.3</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
-        <v>17.7</v>
+        <v>19</v>
       </c>
       <c r="G31" t="n">
-        <v>4.4</v>
+        <v>6.3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1835,19 +1835,19 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J31" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="K31" t="n">
-        <v>21.8</v>
+        <v>20</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="32">
@@ -1860,7 +1860,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5.3</v>
+        <v>8.9</v>
       </c>
       <c r="D32" t="n">
         <v>-2</v>
@@ -1901,23 +1901,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Drew Sample (CIN)</t>
+          <t>Noah Gray (KC)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>8.6</v>
       </c>
       <c r="D33" t="n">
-        <v>-13</v>
+        <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
-        <v>27.2</v>
+        <v>12.4</v>
       </c>
       <c r="G33" t="n">
-        <v>6.8</v>
+        <v>4.1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1928,16 +1928,16 @@
         <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K33" t="n">
-        <v>18</v>
+        <v>21.3</v>
       </c>
       <c r="L33" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M33" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1946,23 +1946,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Noah Gray (KC)</t>
+          <t>Drew Sample (CIN)</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>12.4</v>
+        <v>27.2</v>
       </c>
       <c r="G34" t="n">
-        <v>4.1</v>
+        <v>6.8</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1973,16 +1973,16 @@
         <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K34" t="n">
-        <v>21.3</v>
+        <v>18</v>
       </c>
       <c r="L34" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35">
@@ -1991,23 +1991,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tyler Higbee (LAR)</t>
+          <t>Stephen Sullivan (CAR)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="E35" t="n">
         <v>3</v>
       </c>
       <c r="F35" t="n">
-        <v>22.6</v>
+        <v>12.1</v>
       </c>
       <c r="G35" t="n">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2018,16 +2018,16 @@
         <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="K35" t="n">
-        <v>15.3</v>
+        <v>20.3</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M35" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2036,23 +2036,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Stephen Sullivan (CAR)</t>
+          <t>Adam Trautman (DEN)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4.8</v>
+        <v>7.7</v>
       </c>
       <c r="D36" t="n">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="E36" t="n">
         <v>3</v>
       </c>
       <c r="F36" t="n">
-        <v>12.1</v>
+        <v>16.6</v>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2060,19 +2060,19 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="J36" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="K36" t="n">
-        <v>20.3</v>
+        <v>18.7</v>
       </c>
       <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
         <v>0.3</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2081,23 +2081,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Adam Trautman (DEN)</t>
+          <t>Donald Parham Jr. (LAC)</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4.6</v>
+        <v>7.6</v>
       </c>
       <c r="D37" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
-        <v>16.6</v>
+        <v>13.5</v>
       </c>
       <c r="G37" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2105,19 +2105,19 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J37" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="K37" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M37" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2126,23 +2126,23 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Donald Parham Jr. (LAC)</t>
+          <t>Tyler Higbee (LAR)</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4.4</v>
+        <v>7.6</v>
       </c>
       <c r="D38" t="n">
-        <v>-1</v>
+        <v>-15</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" t="n">
-        <v>13.5</v>
+        <v>22.6</v>
       </c>
       <c r="G38" t="n">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2150,19 +2150,19 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>18.8</v>
+        <v>15.3</v>
       </c>
       <c r="L38" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="39">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4.3</v>
+        <v>7.5</v>
       </c>
       <c r="D39" t="n">
         <v>31</v>
@@ -2220,7 +2220,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4.2</v>
+        <v>7.3</v>
       </c>
       <c r="D40" t="n">
         <v>16</v>
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3.7</v>
+        <v>6.2</v>
       </c>
       <c r="D41" t="n">
         <v>-2</v>
@@ -2310,7 +2310,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3.6</v>
+        <v>6.2</v>
       </c>
       <c r="D42" t="n">
         <v>12</v>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3.4</v>
+        <v>5.7</v>
       </c>
       <c r="D43" t="n">
         <v>-8</v>
@@ -2396,23 +2396,23 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Josh Oliver (MIN)</t>
+          <t>Jeremy Ruckert (NYJ)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3.3</v>
+        <v>5.4</v>
       </c>
       <c r="D44" t="n">
-        <v>-11</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
       </c>
       <c r="F44" t="n">
-        <v>16.8</v>
+        <v>11</v>
       </c>
       <c r="G44" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2423,16 +2423,16 @@
         <v>1.5</v>
       </c>
       <c r="J44" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="K44" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="L44" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2441,23 +2441,23 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Stone Smartt (LAC)</t>
+          <t>Josh Oliver (MIN)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3.2</v>
+        <v>5.4</v>
       </c>
       <c r="D45" t="n">
-        <v>-1</v>
+        <v>-12</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
       </c>
       <c r="F45" t="n">
-        <v>12.1</v>
+        <v>16.8</v>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2465,16 +2465,16 @@
         </is>
       </c>
       <c r="I45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>12</v>
+      </c>
+      <c r="L45" t="n">
         <v>0.2</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2</v>
-      </c>
-      <c r="K45" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
       </c>
       <c r="M45" t="n">
         <v>0.2</v>
@@ -2486,23 +2486,23 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Jeremy Ruckert (NYJ)</t>
+          <t>Stone Smartt (LAC)</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3.2</v>
+        <v>5.4</v>
       </c>
       <c r="D46" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
       </c>
       <c r="F46" t="n">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="G46" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2510,19 +2510,19 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="J46" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="47">
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="D48" t="n">
         <v>-16</v>
@@ -2625,7 +2625,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="D49" t="n">
         <v>-7</v>
@@ -2670,7 +2670,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="D50" t="n">
         <v>-14</v>
@@ -2715,7 +2715,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="D51" t="n">
         <v>7</v>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="D52" t="n">
         <v>-15</v>
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>-4</v>
@@ -2850,7 +2850,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="D54" t="n">
         <v>-6</v>
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="D55" t="n">
         <v>-4</v>
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="D56" t="n">
         <v>9</v>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="D57" t="n">
         <v>7</v>
@@ -3030,7 +3030,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="D58" t="n">
         <v>-6</v>
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="D59" t="n">
         <v>-2</v>
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>-7</v>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
@@ -3210,7 +3210,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="D62" t="n">
         <v>7</v>
@@ -3255,7 +3255,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="D63" t="n">
         <v>-5</v>
@@ -3300,7 +3300,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="D64" t="n">
         <v>-4</v>
@@ -3345,7 +3345,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="D65" t="n">
         <v>2</v>
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="D66" t="n">
         <v>-3</v>
@@ -3431,34 +3431,34 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Brevin Jordan (HOU)</t>
+          <t>Colby Parkinson (SEA)</t>
         </is>
       </c>
       <c r="C67" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4</v>
+      </c>
+      <c r="F67" t="n">
+        <v>4.800000000000001</v>
+      </c>
+      <c r="G67" t="n">
         <v>1.2</v>
       </c>
-      <c r="D67" t="n">
-        <v>7</v>
-      </c>
-      <c r="E67" t="n">
-        <v>2</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1</v>
-      </c>
       <c r="H67" t="inlineStr">
         <is>
           <t>9 - 12</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K67" t="n">
         <v>4.5</v>
@@ -3476,23 +3476,23 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Colby Parkinson (SEA)</t>
+          <t>Jordan Akins (CLE)</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="D68" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
       </c>
       <c r="F68" t="n">
-        <v>4.800000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J68" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -3521,20 +3521,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Jordan Akins (CLE)</t>
+          <t>Brevin Jordan (HOU)</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="E69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="K69" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="D70" t="n">
         <v>4</v>
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="D71" t="n">
         <v>-3</v>
@@ -3656,23 +3656,23 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Harrison Bryant (CLE)</t>
+          <t>Charlie Kolar (BAL)</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-18</v>
+        <v>-1</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
       </c>
       <c r="F72" t="n">
-        <v>6.7</v>
+        <v>2.3</v>
       </c>
       <c r="G72" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -3680,19 +3680,19 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J72" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="K72" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -3701,23 +3701,23 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Charlie Kolar (BAL)</t>
+          <t>Julian Hill (MIA)</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="D73" t="n">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -3725,13 +3725,13 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K73" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="D74" t="n">
         <v>-2</v>
@@ -3795,7 +3795,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="D75" t="n">
         <v>-1</v>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="D76" t="n">
         <v>4</v>
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="D77" t="n">
         <v>-5</v>
@@ -3926,23 +3926,23 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Julian Hill (MIA)</t>
+          <t>Harrison Bryant (CLE)</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
+        <v>-24</v>
+      </c>
+      <c r="E78" t="n">
         <v>4</v>
       </c>
-      <c r="E78" t="n">
-        <v>3</v>
-      </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3950,19 +3950,19 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="J78" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K78" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="79">
@@ -3975,7 +3975,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
         <v>-2</v>
@@ -4020,7 +4020,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
         <v>2</v>
@@ -4065,7 +4065,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="D81" t="n">
         <v>-3</v>
@@ -4110,7 +4110,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="D82" t="n">
         <v>-4</v>
@@ -4155,7 +4155,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D83" t="n">
         <v>-1</v>
@@ -4200,7 +4200,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D84" t="n">
         <v>-3</v>
@@ -4241,17 +4241,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Grant Calcaterra (PHI)</t>
+          <t>Ben Sims (GB)</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D85" t="n">
         <v>-3</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -4286,17 +4286,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>John FitzPatrick (ATL)</t>
+          <t>Brenton Strange (JAC)</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D86" t="n">
         <v>-4</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Trevon Wesco (TEN)</t>
+          <t>Grant Calcaterra (PHI)</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -4341,7 +4341,7 @@
         <v>-5</v>
       </c>
       <c r="E87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Jesper Horsted (LV)</t>
+          <t>Ko Kieft (TB)</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -4386,7 +4386,7 @@
         <v>-6</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Albert Okwuegbunam (PHI)</t>
+          <t>Trevon Wesco (TEN)</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -4431,7 +4431,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Noah Togiai (PHI)</t>
+          <t>Jesper Horsted (LV)</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -4476,7 +4476,7 @@
         <v>-8</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Reggie Gilliam (BUF)</t>
+          <t>Albert Okwuegbunam (PHI)</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ko Kieft (TB)</t>
+          <t>Noah Togiai (PHI)</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -4566,7 +4566,7 @@
         <v>-10</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Tucker Fisk (ATL)</t>
+          <t>Reggie Gilliam (BUF)</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -4611,7 +4611,7 @@
         <v>-11</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -4646,7 +4646,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Kevin Rader (TEN)</t>
+          <t>Tucker Fisk (ATL)</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -4656,7 +4656,7 @@
         <v>-12</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Rodney Williams (PIT)</t>
+          <t>John FitzPatrick (ATL)</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -4701,7 +4701,7 @@
         <v>-13</v>
       </c>
       <c r="E95" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Nate Adkins (DEN)</t>
+          <t>Kevin Rader (TEN)</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -4746,7 +4746,7 @@
         <v>-14</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Brady Russell (SEA)</t>
+          <t>Rodney Williams (PIT)</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -4791,7 +4791,7 @@
         <v>-15</v>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -4826,7 +4826,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Henry Pearson (GB)</t>
+          <t>Nate Adkins (DEN)</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -4836,7 +4836,7 @@
         <v>-16</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Brenton Strange (JAC)</t>
+          <t>Brady Russell (SEA)</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -4881,7 +4881,7 @@
         <v>-17</v>
       </c>
       <c r="E99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -4898,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ben Sims (GB)</t>
+          <t>Henry Pearson (GB)</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -4926,7 +4926,7 @@
         <v>-18</v>
       </c>
       <c r="E100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>

--- a/TE/TE_Analysis.xlsx
+++ b/TE/TE_Analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M192"/>
+  <dimension ref="A1:M189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,40 +506,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T.J. Hockenson (MIN)</t>
+          <t>Travis Kelce (KC)</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31.9</v>
+        <v>31.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>69.8</v>
+        <v>183.3</v>
       </c>
       <c r="G2" t="n">
-        <v>17.4</v>
+        <v>16.7</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="K2" t="n">
-        <v>77</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -551,43 +551,43 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>George Kittle (SF)</t>
+          <t>T.J. Hockenson (MIN)</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29.6</v>
+        <v>28.5</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>48.4</v>
+        <v>186.6</v>
       </c>
       <c r="G3" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>4.7</v>
+        <v>6.7</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K3" t="n">
-        <v>74.7</v>
+        <v>65.5</v>
       </c>
       <c r="L3" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -596,43 +596,43 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Trey McBride (ARI)</t>
+          <t>George Kittle (SF)</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25.8</v>
+        <v>25.1</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
-        <v>48.6</v>
+        <v>153.7</v>
       </c>
       <c r="G4" t="n">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
-        <v>7.5</v>
+        <v>5.6</v>
       </c>
       <c r="K4" t="n">
-        <v>64</v>
+        <v>61.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
@@ -641,43 +641,43 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pat Freiermuth (PIT)</t>
+          <t>Sam LaPorta (DET)</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
-        <v>22.7</v>
+        <v>171.9</v>
       </c>
       <c r="G5" t="n">
-        <v>11.4</v>
+        <v>14.3</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="K5" t="n">
-        <v>63.5</v>
+        <v>56.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -686,43 +686,43 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dalton Schultz (HOU)</t>
+          <t>Mark Andrews (BAL)</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="D6" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>50.5</v>
+        <v>135.4</v>
       </c>
       <c r="G6" t="n">
-        <v>12.6</v>
+        <v>13.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="K6" t="n">
-        <v>58.8</v>
+        <v>54.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7">
@@ -731,43 +731,43 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dalton Kincaid (BUF)</t>
+          <t>Evan Engram (JAC)</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>22.3</v>
       </c>
       <c r="D7" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>51.60000000000001</v>
+        <v>137.6</v>
       </c>
       <c r="G7" t="n">
-        <v>12.9</v>
+        <v>11.5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="J7" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="K7" t="n">
-        <v>54</v>
+        <v>50.5</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8">
@@ -776,43 +776,43 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>David Njoku (CLE)</t>
+          <t>Darren Waller (NYG)</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>20.4</v>
       </c>
       <c r="D8" t="n">
-        <v>-2</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>48.9</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>12.2</v>
+        <v>10</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>9.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="K8" t="n">
-        <v>49.8</v>
+        <v>48</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
@@ -821,43 +821,43 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Travis Kelce (KC)</t>
+          <t>Trey McBride (ARI)</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21</v>
+        <v>19.8</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>34.9</v>
+        <v>129</v>
       </c>
       <c r="G9" t="n">
-        <v>11.6</v>
+        <v>9.9</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="J9" t="n">
-        <v>6.7</v>
+        <v>5.7</v>
       </c>
       <c r="K9" t="n">
-        <v>49.7</v>
+        <v>46.9</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10">
@@ -866,43 +866,43 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mark Andrews (BAL)</t>
+          <t>Dallas Goedert (PHI)</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>27.7</v>
+        <v>91</v>
       </c>
       <c r="G10" t="n">
-        <v>9.199999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="K10" t="n">
-        <v>49</v>
+        <v>45.6</v>
       </c>
       <c r="L10" t="n">
         <v>0.7</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11">
@@ -911,43 +911,43 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jake Ferguson (DAL)</t>
+          <t>Dalton Kincaid (BUF)</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19.5</v>
+        <v>18.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>45.40000000000001</v>
+        <v>113.4</v>
       </c>
       <c r="G11" t="n">
-        <v>11.4</v>
+        <v>10.3</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="J11" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="K11" t="n">
-        <v>46</v>
+        <v>43.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12">
@@ -956,43 +956,43 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tyler Conklin (NYJ)</t>
+          <t>David Njoku (CLE)</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19.1</v>
+        <v>18.7</v>
       </c>
       <c r="D12" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F12" t="n">
-        <v>37.7</v>
+        <v>113.9</v>
       </c>
       <c r="G12" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="J12" t="n">
-        <v>5.2</v>
+        <v>7</v>
       </c>
       <c r="K12" t="n">
-        <v>46.8</v>
+        <v>42.4</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13">
@@ -1001,43 +1001,43 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Dallas Goedert (PHI)</t>
+          <t>Dalton Schultz (HOU)</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>113.5</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>10.3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="K13" t="n">
-        <v>50</v>
+        <v>41.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
@@ -1046,43 +1046,43 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Luke Musgrave (GB)</t>
+          <t>Jake Ferguson (DAL)</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F14" t="n">
-        <v>29.3</v>
+        <v>125.8</v>
       </c>
       <c r="G14" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="J14" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="K14" t="n">
-        <v>47.7</v>
+        <v>41.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15">
@@ -1091,43 +1091,43 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cade Otton (TB)</t>
+          <t>Cole Kmet (CHI)</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="D15" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>43.4</v>
+        <v>134.4</v>
       </c>
       <c r="G15" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="J15" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="K15" t="n">
-        <v>43.5</v>
+        <v>40.2</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16">
@@ -1136,43 +1136,43 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cole Kmet (CHI)</t>
+          <t>Kyle Pitts (ATL)</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>18.2</v>
+        <v>17.3</v>
       </c>
       <c r="D16" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>49.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="G16" t="n">
-        <v>12.4</v>
+        <v>8</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="J16" t="n">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="K16" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17">
@@ -1181,43 +1181,43 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sam LaPorta (DET)</t>
+          <t>Tyler Conklin (NYJ)</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D17" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F17" t="n">
-        <v>32.5</v>
+        <v>86.89999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>10.8</v>
+        <v>7.2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J17" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="K17" t="n">
-        <v>35</v>
+        <v>37.4</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1226,43 +1226,43 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tanner Hudson (CIN)</t>
+          <t>Logan Thomas (WAS)</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D18" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F18" t="n">
-        <v>32.5</v>
+        <v>103.6</v>
       </c>
       <c r="G18" t="n">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="J18" t="n">
         <v>5.2</v>
       </c>
       <c r="K18" t="n">
-        <v>36.2</v>
+        <v>35.3</v>
       </c>
       <c r="L18" t="n">
         <v>0.2</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19">
@@ -1271,43 +1271,43 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Logan Thomas (WAS)</t>
+          <t>Jonnu Smith (ATL)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>15.1</v>
       </c>
       <c r="D19" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
+        <v>12</v>
+      </c>
+      <c r="F19" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J19" t="n">
         <v>4</v>
       </c>
-      <c r="F19" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="G19" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5.5</v>
-      </c>
       <c r="K19" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="L19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M19" t="n">
         <v>0.2</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1316,43 +1316,43 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Kyle Pitts (ATL)</t>
+          <t>Luke Musgrave (GB)</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>14.3</v>
+        <v>14.6</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>19.8</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K20" t="n">
-        <v>36</v>
+        <v>34.1</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21">
@@ -1361,40 +1361,40 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Evan Engram (JAC)</t>
+          <t>Tanner Hudson (CIN)</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>13.8</v>
+        <v>14.1</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>22</v>
+        <v>48.8</v>
       </c>
       <c r="G21" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="K21" t="n">
-        <v>30</v>
+        <v>32.6</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1406,43 +1406,43 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hayden Hurst (CAR)</t>
+          <t>Tyler Higbee (LAR)</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="D22" t="n">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F22" t="n">
-        <v>10.8</v>
+        <v>82.7</v>
       </c>
       <c r="G22" t="n">
-        <v>5.4</v>
+        <v>6.9</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="K22" t="n">
-        <v>34</v>
+        <v>30.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23">
@@ -1451,40 +1451,40 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Jonnu Smith (ATL)</t>
+          <t>Pat Freiermuth (PIT)</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E23" t="n">
+        <v>7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>3</v>
       </c>
-      <c r="F23" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>2</v>
-      </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="K23" t="n">
-        <v>33.7</v>
+        <v>29.9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="M23" t="n">
         <v>0.3</v>
@@ -1496,43 +1496,43 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Taysom Hill (NO)</t>
+          <t>Cade Otton (TB)</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="D24" t="n">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F24" t="n">
-        <v>33</v>
+        <v>90.80000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="K24" t="n">
-        <v>28.3</v>
+        <v>29</v>
       </c>
       <c r="L24" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25">
@@ -1541,43 +1541,43 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Daniel Bellinger (NYG)</t>
+          <t>Hunter Henry (NE)</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F25" t="n">
-        <v>21.3</v>
+        <v>81.3</v>
       </c>
       <c r="G25" t="n">
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="J25" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="K25" t="n">
-        <v>30.8</v>
+        <v>26.1</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="26">
@@ -1586,43 +1586,43 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Juwan Johnson (NO)</t>
+          <t>Chigoziem Okonkwo (TEN)</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="D26" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F26" t="n">
-        <v>23.6</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>7.9</v>
+        <v>5.6</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="K26" t="n">
-        <v>25.3</v>
+        <v>26.1</v>
       </c>
       <c r="L26" t="n">
         <v>0.3</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1631,43 +1631,43 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chigoziem Okonkwo (TEN)</t>
+          <t>Gerald Everett (LAC)</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="D27" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>21.6</v>
+        <v>72.80000000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>5.4</v>
+        <v>7.3</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J27" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="K27" t="n">
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="28">
@@ -1676,43 +1676,43 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Michael Mayer (LV)</t>
+          <t>Kylen Granson (IND)</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>11.1</v>
+        <v>10.6</v>
       </c>
       <c r="D28" t="n">
-        <v>-9</v>
+        <v>4</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>27.3</v>
+        <v>50.9</v>
       </c>
       <c r="G28" t="n">
-        <v>6.8</v>
+        <v>5.1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="K28" t="n">
-        <v>25.8</v>
+        <v>24.7</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="29">
@@ -1721,31 +1721,31 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Luke Farrell (JAC)</t>
+          <t>Noah Fant (SEA)</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9.9</v>
+        <v>10.2</v>
       </c>
       <c r="D29" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F29" t="n">
-        <v>12.6</v>
+        <v>52.4</v>
       </c>
       <c r="G29" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J29" t="n">
         <v>2.3</v>
@@ -1754,7 +1754,7 @@
         <v>25.3</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -1766,43 +1766,43 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Isaiah Likely (BAL)</t>
+          <t>Taysom Hill (NO)</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>-19</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F30" t="n">
-        <v>17.7</v>
+        <v>118.4</v>
       </c>
       <c r="G30" t="n">
-        <v>4.4</v>
+        <v>9.9</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>2.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="K30" t="n">
-        <v>21.8</v>
+        <v>19.1</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="31">
@@ -1811,43 +1811,43 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Hunter Henry (NE)</t>
+          <t>Hayden Hurst (CAR)</t>
         </is>
       </c>
       <c r="C31" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="n">
         <v>9</v>
       </c>
-      <c r="D31" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E31" t="n">
-        <v>3</v>
-      </c>
       <c r="F31" t="n">
-        <v>19</v>
+        <v>42.4</v>
       </c>
       <c r="G31" t="n">
-        <v>6.3</v>
+        <v>4.7</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K31" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M31" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="32">
@@ -1856,43 +1856,43 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Gerald Everett (LAC)</t>
+          <t>Michael Mayer (LV)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>8.9</v>
       </c>
       <c r="D32" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F32" t="n">
-        <v>18.1</v>
+        <v>55.10000000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J32" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="K32" t="n">
-        <v>20.3</v>
+        <v>20.9</v>
       </c>
       <c r="L32" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="M32" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="33">
@@ -1905,39 +1905,39 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>-5</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F33" t="n">
-        <v>12.4</v>
+        <v>58.7</v>
       </c>
       <c r="G33" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J33" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K33" t="n">
-        <v>21.3</v>
+        <v>20.5</v>
       </c>
       <c r="L33" t="n">
         <v>0.3</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="34">
@@ -1946,43 +1946,43 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Drew Sample (CIN)</t>
+          <t>Juwan Johnson (NO)</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="D34" t="n">
-        <v>-14</v>
+        <v>4</v>
       </c>
       <c r="E34" t="n">
+        <v>8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J34" t="n">
         <v>4</v>
       </c>
-      <c r="F34" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="G34" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>2</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2.5</v>
-      </c>
       <c r="K34" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="L34" t="n">
         <v>0.2</v>
       </c>
       <c r="M34" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
@@ -1991,43 +1991,43 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Stephen Sullivan (CAR)</t>
+          <t>Donald Parham Jr. (LAC)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="D35" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F35" t="n">
-        <v>12.1</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J35" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="K35" t="n">
-        <v>20.3</v>
+        <v>15.9</v>
       </c>
       <c r="L35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M35" t="n">
         <v>0.3</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2036,43 +2036,43 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Adam Trautman (DEN)</t>
+          <t>Dawson Knox (BUF)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="D36" t="n">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>16.6</v>
+        <v>33.2</v>
       </c>
       <c r="G36" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
-        <v>18.7</v>
+        <v>14.6</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37">
@@ -2081,43 +2081,43 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Donald Parham Jr. (LAC)</t>
+          <t>Andrew Ogletree (IND)</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E37" t="n">
+        <v>9</v>
+      </c>
+      <c r="F37" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="G37" t="n">
         <v>4</v>
       </c>
-      <c r="F37" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="G37" t="n">
-        <v>3.4</v>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
-        <v>18.8</v>
+        <v>16.3</v>
       </c>
       <c r="L37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M37" t="n">
         <v>0.2</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2126,43 +2126,43 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Tyler Higbee (LAR)</t>
+          <t>Mike Gesicki (NE)</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="D38" t="n">
-        <v>-15</v>
+        <v>-4</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F38" t="n">
-        <v>22.6</v>
+        <v>45.2</v>
       </c>
       <c r="G38" t="n">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="K38" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
@@ -2171,40 +2171,40 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Andrew Ogletree (IND)</t>
+          <t>Durham Smythe (MIA)</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="D39" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F39" t="n">
-        <v>2.9</v>
+        <v>35.8</v>
       </c>
       <c r="G39" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="K39" t="n">
-        <v>19</v>
+        <v>16.2</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -2216,43 +2216,43 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Will Mallory (IND)</t>
+          <t>Brevin Jordan (HOU)</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
       <c r="D40" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F40" t="n">
-        <v>6.600000000000001</v>
+        <v>27.4</v>
       </c>
       <c r="G40" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="K40" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="41">
@@ -2261,40 +2261,40 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Connor Heyward (PIT)</t>
+          <t>Stephen Sullivan (CAR)</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>6.2</v>
       </c>
       <c r="D41" t="n">
-        <v>-2</v>
+        <v>27</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
-        <v>12.9</v>
+        <v>17</v>
       </c>
       <c r="G41" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="J41" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="K41" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -2306,43 +2306,43 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Durham Smythe (MIA)</t>
+          <t>Foster Moreau (NO)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F42" t="n">
-        <v>6.7</v>
+        <v>33.3</v>
       </c>
       <c r="G42" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="K42" t="n">
-        <v>13.5</v>
+        <v>14.3</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43">
@@ -2351,43 +2351,43 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tucker Kraft (GB)</t>
+          <t>Will Mallory (IND)</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="D43" t="n">
-        <v>-8</v>
+        <v>22</v>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>16.3</v>
+        <v>17.5</v>
       </c>
       <c r="G43" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="K43" t="n">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="L43" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M43" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2396,37 +2396,37 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Jeremy Ruckert (NYJ)</t>
+          <t>Connor Heyward (PIT)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F44" t="n">
-        <v>11</v>
+        <v>33.8</v>
       </c>
       <c r="G44" t="n">
         <v>2.8</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J44" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="K44" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -2441,43 +2441,43 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Josh Oliver (MIN)</t>
+          <t>Greg Dulcich (DEN)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="D45" t="n">
-        <v>-12</v>
+        <v>44</v>
       </c>
       <c r="E45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>16.8</v>
+        <v>5.5</v>
       </c>
       <c r="G45" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>1.5</v>
       </c>
       <c r="J45" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="L45" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2486,43 +2486,43 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Stone Smartt (LAC)</t>
+          <t>Pharaoh Brown (NE)</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="D46" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F46" t="n">
-        <v>12.1</v>
+        <v>30</v>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="K46" t="n">
-        <v>12.8</v>
+        <v>14.2</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="M46" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="47">
@@ -2531,37 +2531,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Will Dissly (SEA)</t>
+          <t>Colby Parkinson (SEA)</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F47" t="n">
-        <v>9.199999999999999</v>
+        <v>29</v>
       </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J47" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="K47" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="L47" t="n">
         <v>0.2</v>
@@ -2576,37 +2576,37 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Tommy Tremble (CAR)</t>
+          <t>Adam Trautman (DEN)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="D48" t="n">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F48" t="n">
-        <v>16.9</v>
+        <v>42.09999999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="J48" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K48" t="n">
-        <v>9.800000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -2621,43 +2621,43 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Brock Wright (DET)</t>
+          <t>Austin Hooper (LV)</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="D49" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F49" t="n">
-        <v>12.2</v>
+        <v>29.9</v>
       </c>
       <c r="G49" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J49" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="K49" t="n">
-        <v>10.7</v>
+        <v>12.4</v>
       </c>
       <c r="L49" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="M49" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2666,43 +2666,43 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Irv Smith Jr. (CIN)</t>
+          <t>Daniel Bellinger (NYG)</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>-14</v>
+        <v>2</v>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F50" t="n">
-        <v>16</v>
+        <v>27.5</v>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="K50" t="n">
-        <v>10</v>
+        <v>12.1</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M50" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2711,43 +2711,43 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Cole Turner (WAS)</t>
+          <t>Irv Smith Jr. (CIN)</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="D51" t="n">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="E51" t="n">
+        <v>10</v>
+      </c>
+      <c r="F51" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="G51" t="n">
         <v>3</v>
       </c>
-      <c r="F51" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1.9</v>
-      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="J51" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="K51" t="n">
-        <v>12</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L51" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="52">
@@ -2756,43 +2756,43 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Luke Schoonmaker (DAL)</t>
+          <t>Cole Turner (WAS)</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="D52" t="n">
-        <v>-15</v>
+        <v>8</v>
       </c>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F52" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="G52" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="K52" t="n">
-        <v>8.800000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M52" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2801,43 +2801,43 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Noah Fant (SEA)</t>
+          <t>Josh Oliver (MIN)</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="D53" t="n">
-        <v>-4</v>
+        <v>-14</v>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F53" t="n">
-        <v>8.5</v>
+        <v>37.8</v>
       </c>
       <c r="G53" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J53" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K53" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="54">
@@ -2846,40 +2846,40 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>John Bates (WAS)</t>
+          <t>Isaiah Likely (BAL)</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="D54" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F54" t="n">
-        <v>9.1</v>
+        <v>25.9</v>
       </c>
       <c r="G54" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I54" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J54" t="n">
         <v>1.5</v>
       </c>
-      <c r="J54" t="n">
-        <v>1.8</v>
-      </c>
       <c r="K54" t="n">
-        <v>7.8</v>
+        <v>10.8</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -2891,40 +2891,40 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Josh Whyle (TEN)</t>
+          <t>John Bates (WAS)</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D55" t="n">
         <v>-4</v>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F55" t="n">
-        <v>7.4</v>
+        <v>28.1</v>
       </c>
       <c r="G55" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J55" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="K55" t="n">
-        <v>8.5</v>
+        <v>10.1</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -2936,40 +2936,40 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Mo Alie-Cox (IND)</t>
+          <t>Will Dissly (SEA)</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F56" t="n">
-        <v>4</v>
+        <v>20.8</v>
       </c>
       <c r="G56" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="J56" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="K56" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L56" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -2981,40 +2981,40 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Mike Gesicki (NE)</t>
+          <t>Luke Farrell (JAC)</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D57" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F57" t="n">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="G57" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="J57" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="K57" t="n">
-        <v>7.3</v>
+        <v>10</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -3026,43 +3026,43 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Darnell Washington (PIT)</t>
+          <t>Tommy Tremble (CAR)</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D58" t="n">
-        <v>-6</v>
+        <v>-21</v>
       </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F58" t="n">
-        <v>7.1</v>
+        <v>39.4</v>
       </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K58" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="59">
@@ -3071,43 +3071,43 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Austin Hooper (LV)</t>
+          <t>Josh Whyle (TEN)</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D59" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F59" t="n">
-        <v>6.1</v>
+        <v>24.4</v>
       </c>
       <c r="G59" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>0.8</v>
       </c>
       <c r="J59" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="K59" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="60">
@@ -3116,43 +3116,43 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Geoff Swaim (ARI)</t>
+          <t>Drew Sample (CIN)</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D60" t="n">
-        <v>-7</v>
+        <v>-17</v>
       </c>
       <c r="E60" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F60" t="n">
-        <v>6.8</v>
+        <v>33.3</v>
       </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K60" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="61">
@@ -3161,40 +3161,40 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Elijah Higgins (ARI)</t>
+          <t>Jeremy Ruckert (NYJ)</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F61" t="n">
-        <v>4.8</v>
+        <v>20.8</v>
       </c>
       <c r="G61" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="J61" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="K61" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L61" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -3206,43 +3206,43 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Foster Moreau (NO)</t>
+          <t>Mo Alie-Cox (IND)</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="D62" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F62" t="n">
-        <v>3.3</v>
+        <v>22.2</v>
       </c>
       <c r="G62" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="J62" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="K62" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="L62" t="n">
         <v>0.3</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="63">
@@ -3251,43 +3251,43 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Johnny Mundt (MIN)</t>
+          <t>Tucker Kraft (GB)</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D63" t="n">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="E63" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F63" t="n">
-        <v>5.6</v>
+        <v>25.5</v>
       </c>
       <c r="G63" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>0.8</v>
       </c>
       <c r="J63" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="K63" t="n">
-        <v>6.5</v>
+        <v>7.9</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="64">
@@ -3296,43 +3296,43 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Payne Durham (TB)</t>
+          <t>Brock Wright (DET)</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D64" t="n">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="E64" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F64" t="n">
-        <v>5.5</v>
+        <v>25.5</v>
       </c>
       <c r="G64" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="J64" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="65">
@@ -3341,40 +3341,40 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Jack Stoll (PHI)</t>
+          <t>Elijah Higgins (ARI)</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>3.7</v>
+        <v>8.9</v>
       </c>
       <c r="G65" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="J65" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="K65" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -3386,43 +3386,43 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>C.J. Uzomah (NYJ)</t>
+          <t>Harrison Bryant (CLE)</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="D66" t="n">
-        <v>-3</v>
+        <v>-20</v>
       </c>
       <c r="E66" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F66" t="n">
-        <v>4.7</v>
+        <v>32.9</v>
       </c>
       <c r="G66" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>0.8</v>
       </c>
       <c r="J66" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="K66" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="67">
@@ -3431,43 +3431,43 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Colby Parkinson (SEA)</t>
+          <t>Stone Smartt (LAC)</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="D67" t="n">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F67" t="n">
-        <v>4.800000000000001</v>
+        <v>17</v>
       </c>
       <c r="G67" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="J67" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>4.5</v>
+        <v>6.7</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="68">
@@ -3476,37 +3476,37 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Jordan Akins (CLE)</t>
+          <t>Josiah Deguara (GB)</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="D68" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>3.9</v>
+        <v>14.5</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K68" t="n">
-        <v>4.8</v>
+        <v>6.5</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -3521,43 +3521,43 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Brevin Jordan (HOU)</t>
+          <t>Luke Schoonmaker (DAL)</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="D69" t="n">
-        <v>5</v>
+        <v>-12</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F69" t="n">
-        <v>1.9</v>
+        <v>25.1</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K69" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="70">
@@ -3570,36 +3570,36 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="D70" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F70" t="n">
-        <v>1.9</v>
+        <v>9.1</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>0.5</v>
       </c>
       <c r="J70" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K70" t="n">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -3611,43 +3611,43 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Andrew Beck (HOU)</t>
+          <t>C.J. Uzomah (NYJ)</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="D71" t="n">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F71" t="n">
-        <v>3.6</v>
+        <v>19.8</v>
       </c>
       <c r="G71" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="72">
@@ -3656,43 +3656,43 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Charlie Kolar (BAL)</t>
+          <t>MyCole Pruitt (ATL)</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="D72" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F72" t="n">
-        <v>2.3</v>
+        <v>17.4</v>
       </c>
       <c r="G72" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I72" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K72" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L72" t="n">
         <v>0.2</v>
       </c>
-      <c r="J72" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K72" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="73">
@@ -3701,37 +3701,37 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Julian Hill (MIA)</t>
+          <t>Geoff Swaim (ARI)</t>
         </is>
       </c>
       <c r="C73" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E73" t="n">
+        <v>13</v>
+      </c>
+      <c r="F73" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="G73" t="n">
         <v>1.2</v>
       </c>
-      <c r="D73" t="n">
-        <v>9</v>
-      </c>
-      <c r="E73" t="n">
-        <v>3</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="J73" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="K73" t="n">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -3746,37 +3746,37 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Quintin Morris (BUF)</t>
+          <t>Robert Tonyan (CHI)</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="D74" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F74" t="n">
-        <v>2.1</v>
+        <v>12.8</v>
       </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J74" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K74" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -3791,37 +3791,37 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Charlie Woerner (SF)</t>
+          <t>Jordan Akins (CLE)</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F75" t="n">
-        <v>1.9</v>
+        <v>12.1</v>
       </c>
       <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>0.6</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>0.3</v>
-      </c>
       <c r="J75" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -3836,40 +3836,40 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Kylen Granson (IND)</t>
+          <t>Teagan Quitoriano (HOU)</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="D76" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F76" t="n">
-        <v>1.5</v>
+        <v>5.300000000000001</v>
       </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>0.3</v>
       </c>
       <c r="J76" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="K76" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -3881,37 +3881,37 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Robert Tonyan (CHI)</t>
+          <t>Payne Durham (TB)</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="D77" t="n">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F77" t="n">
-        <v>2.1</v>
+        <v>7.3</v>
       </c>
       <c r="G77" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>0.5</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>0.2</v>
-      </c>
       <c r="J77" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K77" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -3926,43 +3926,43 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Harrison Bryant (CLE)</t>
+          <t>Johnny Mundt (MIN)</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D78" t="n">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F78" t="n">
-        <v>6.7</v>
+        <v>9.5</v>
       </c>
       <c r="G78" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J78" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K78" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3971,43 +3971,43 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Josiah Deguara (GB)</t>
+          <t>Lawrence Cager (NYG)</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D79" t="n">
-        <v>-2</v>
+        <v>24</v>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J79" t="n">
         <v>0.6</v>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.3</v>
-      </c>
       <c r="K79" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="80">
@@ -4016,43 +4016,43 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Lawrence Cager (NYG)</t>
+          <t>Julian Hill (MIA)</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E80" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J80" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K80" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -4061,37 +4061,37 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Davis Allen (LAR)</t>
+          <t>Darnell Washington (PIT)</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="D81" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F81" t="n">
-        <v>1.6</v>
+        <v>9.100000000000001</v>
       </c>
       <c r="G81" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J81" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K81" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -4106,43 +4106,43 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Chris Manhertz (DEN)</t>
+          <t>Brenton Strange (JAC)</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="D82" t="n">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F82" t="n">
-        <v>1.6</v>
+        <v>13.4</v>
       </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J82" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K82" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="83">
@@ -4151,40 +4151,40 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Lucas Krull (DEN)</t>
+          <t>Brycen Hopkins (LAR)</t>
         </is>
       </c>
       <c r="C83" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D83" t="n">
+        <v>4</v>
+      </c>
+      <c r="E83" t="n">
+        <v>10</v>
+      </c>
+      <c r="F83" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
         <v>0.3</v>
       </c>
-      <c r="D83" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -4196,37 +4196,37 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Mitchell Wilcox (CIN)</t>
+          <t>Nate Adkins (DEN)</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="D84" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F84" t="n">
-        <v>1.1</v>
+        <v>6.2</v>
       </c>
       <c r="G84" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J84" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K84" t="n">
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -4241,43 +4241,43 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Ben Sims (GB)</t>
+          <t>Quintin Morris (BUF)</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="D85" t="n">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J85" t="n">
         <v>0.3</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="86">
@@ -4286,37 +4286,37 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Brenton Strange (JAC)</t>
+          <t>Mitchell Wilcox (CIN)</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="D86" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J86" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -4331,43 +4331,43 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Grant Calcaterra (PHI)</t>
+          <t>Jimmy Graham (NO)</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="D87" t="n">
-        <v>-5</v>
+        <v>-16</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="88">
@@ -4376,37 +4376,37 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ko Kieft (TB)</t>
+          <t>Jack Stoll (PHI)</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="D88" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>6.699999999999999</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -4421,37 +4421,37 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Trevon Wesco (TEN)</t>
+          <t>Andrew Beck (HOU)</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="D89" t="n">
-        <v>-7</v>
+        <v>-22</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -4466,43 +4466,43 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Jesper Horsted (LV)</t>
+          <t>Ben Sims (GB)</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D90" t="n">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="91">
@@ -4511,43 +4511,43 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Albert Okwuegbunam (PHI)</t>
+          <t>Blake Bell (KC)</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D91" t="n">
         <v>-9</v>
       </c>
       <c r="E91" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>8.899999999999999</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="92">
@@ -4556,37 +4556,37 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Noah Togiai (PHI)</t>
+          <t>Marcedes Lewis (CHI)</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D92" t="n">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -4601,40 +4601,40 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Reggie Gilliam (BUF)</t>
+          <t>Trevon Wesco (TEN)</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D93" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -4646,37 +4646,37 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Tucker Fisk (ATL)</t>
+          <t>Peyton Hendershot (DAL)</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D94" t="n">
-        <v>-12</v>
+        <v>6</v>
       </c>
       <c r="E94" t="n">
+        <v>3</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K94" t="n">
         <v>1</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
@@ -4691,37 +4691,37 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>John FitzPatrick (ATL)</t>
+          <t>Eric Saubert (HOU)</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D95" t="n">
-        <v>-13</v>
+        <v>3</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -4736,37 +4736,37 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Kevin Rader (TEN)</t>
+          <t>Charlie Kolar (BAL)</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D96" t="n">
-        <v>-14</v>
+        <v>-2</v>
       </c>
       <c r="E96" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -4781,37 +4781,37 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Rodney Williams (PIT)</t>
+          <t>Chris Manhertz (DEN)</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D97" t="n">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="E97" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -4826,37 +4826,37 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Nate Adkins (DEN)</t>
+          <t>Jesper Horsted (LV)</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D98" t="n">
-        <v>-16</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -4871,37 +4871,37 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Brady Russell (SEA)</t>
+          <t>Ross Dwelley (SF)</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D99" t="n">
-        <v>-17</v>
+        <v>-4</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -4916,37 +4916,37 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Henry Pearson (GB)</t>
+          <t>Charlie Woerner (SF)</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D100" t="n">
-        <v>-18</v>
+        <v>-4</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
@@ -4961,37 +4961,37 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Tyree Jackson (NYG)</t>
+          <t>Davis Allen (LAR)</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D101" t="n">
-        <v>-19</v>
+        <v>-4</v>
       </c>
       <c r="E101" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -5006,37 +5006,37 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Eric Saubert (HOU)</t>
+          <t>Giovanni Ricci (CAR)</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D102" t="n">
-        <v>-20</v>
+        <v>-1</v>
       </c>
       <c r="E102" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -5051,17 +5051,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ross Dwelley (SF)</t>
+          <t>Lucas Krull (DEN)</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D103" t="n">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -5071,14 +5071,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
@@ -5096,17 +5096,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Marcedes Lewis (CHI)</t>
+          <t>Reggie Gilliam (BUF)</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D104" t="n">
-        <v>-22</v>
+        <v>-1</v>
       </c>
       <c r="E104" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -5116,17 +5116,17 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J104" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
@@ -5141,17 +5141,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Nick Vannett (LAC)</t>
+          <t>Ko Kieft (TB)</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D105" t="n">
-        <v>-23</v>
+        <v>-2</v>
       </c>
       <c r="E105" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -5161,14 +5161,14 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
@@ -5186,17 +5186,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Hunter Kampmoyer (LAC)</t>
+          <t>Rodney Williams (PIT)</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D106" t="n">
-        <v>-24</v>
+        <v>-3</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -5206,14 +5206,14 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
@@ -5231,17 +5231,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Tyler Kroft (MIA)</t>
+          <t>Sean McKeon (DAL)</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D107" t="n">
-        <v>-25</v>
+        <v>-4</v>
       </c>
       <c r="E107" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -5251,14 +5251,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
@@ -5276,17 +5276,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>James Mitchell (DET)</t>
+          <t>Albert Okwuegbunam (PHI)</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D108" t="n">
-        <v>-26</v>
+        <v>-5</v>
       </c>
       <c r="E108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -5296,14 +5296,14 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -5321,14 +5321,14 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MyCole Pruitt (ATL)</t>
+          <t>Parker Hesse (ATL)</t>
         </is>
       </c>
       <c r="C109" t="n">
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>-27</v>
+        <v>-6</v>
       </c>
       <c r="E109" t="n">
         <v>3</v>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I109" t="n">
@@ -5366,17 +5366,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Blake Bell (KC)</t>
+          <t>Mitchell Fraboni (DEN)</t>
         </is>
       </c>
       <c r="C110" t="n">
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>-28</v>
+        <v>-7</v>
       </c>
       <c r="E110" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I110" t="n">
@@ -5411,17 +5411,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Pharaoh Brown (NE)</t>
+          <t>Dalton Keene (HOU)</t>
         </is>
       </c>
       <c r="C111" t="n">
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>-29</v>
+        <v>-8</v>
       </c>
       <c r="E111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I111" t="n">
@@ -5456,14 +5456,14 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Jordan Thomas (CAR)</t>
+          <t>Noah Togiai (PHI)</t>
         </is>
       </c>
       <c r="C112" t="n">
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>-30</v>
+        <v>-9</v>
       </c>
       <c r="E112" t="n">
         <v>1</v>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I112" t="n">
@@ -5501,14 +5501,14 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Dalton Keene (HOU)</t>
+          <t>Zack Kuntz (NYJ)</t>
         </is>
       </c>
       <c r="C113" t="n">
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>-31</v>
+        <v>-10</v>
       </c>
       <c r="E113" t="n">
         <v>1</v>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I113" t="n">
@@ -5546,17 +5546,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Hunter Long (LAR)</t>
+          <t>Kevin Rader (TEN)</t>
         </is>
       </c>
       <c r="C114" t="n">
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>-32</v>
+        <v>-11</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -5566,7 +5566,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I114" t="n">
@@ -5591,17 +5591,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Zach Wood (NO)</t>
+          <t>Tyree Jackson (NYG)</t>
         </is>
       </c>
       <c r="C115" t="n">
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>-33</v>
+        <v>-12</v>
       </c>
       <c r="E115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I115" t="n">
@@ -5636,17 +5636,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Parker Hesse (ATL)</t>
+          <t>Hunter Long (LAR)</t>
         </is>
       </c>
       <c r="C116" t="n">
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>-34</v>
+        <v>-13</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I116" t="n">
@@ -5681,14 +5681,14 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Mitchell Fraboni (DEN)</t>
+          <t>Leroy Watson IV (CLE)</t>
         </is>
       </c>
       <c r="C117" t="n">
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>-35</v>
+        <v>-14</v>
       </c>
       <c r="E117" t="n">
         <v>1</v>
@@ -5701,7 +5701,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I117" t="n">
@@ -5726,14 +5726,14 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Brycen Hopkins (LAR)</t>
+          <t>Brayden Willis (SF)</t>
         </is>
       </c>
       <c r="C118" t="n">
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>-36</v>
+        <v>-15</v>
       </c>
       <c r="E118" t="n">
         <v>2</v>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I118" t="n">
@@ -5771,17 +5771,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Giovanni Ricci (CAR)</t>
+          <t>Tucker Fisk (ATL)</t>
         </is>
       </c>
       <c r="C119" t="n">
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>-37</v>
+        <v>-16</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I119" t="n">
@@ -5816,17 +5816,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Sean McKeon (DAL)</t>
+          <t>Henry Pearson (GB)</t>
         </is>
       </c>
       <c r="C120" t="n">
         <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>-38</v>
+        <v>-17</v>
       </c>
       <c r="E120" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I120" t="n">
@@ -5861,14 +5861,14 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Leroy Watson IV (CLE)</t>
+          <t>Matt Sokol (NE)</t>
         </is>
       </c>
       <c r="C121" t="n">
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>-39</v>
+        <v>-18</v>
       </c>
       <c r="E121" t="n">
         <v>1</v>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I121" t="n">
@@ -5906,30 +5906,44 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>James Winchester (KC)</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr"/>
+          <t>Stephen Anderson (LAC)</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
       <c r="D122" t="n">
-        <v>-40</v>
+        <v>-19</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
       </c>
-      <c r="G122" t="inlineStr"/>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -5937,30 +5951,44 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Matt Bushman (KC)</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr"/>
+          <t>Grant Calcaterra (PHI)</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
       <c r="D123" t="n">
-        <v>-41</v>
+        <v>-20</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
       </c>
-      <c r="G123" t="inlineStr"/>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -5968,30 +5996,44 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Shane Zylstra (DET)</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr"/>
+          <t>John FitzPatrick (ATL)</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
       <c r="D124" t="n">
-        <v>-42</v>
+        <v>-21</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
       </c>
-      <c r="G124" t="inlineStr"/>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -5999,30 +6041,44 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Bernhard Seikovits (ARI)</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr"/>
+          <t>Matt Bushman (KC)</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
       <c r="D125" t="n">
-        <v>-43</v>
+        <v>-22</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
       </c>
-      <c r="G125" t="inlineStr"/>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -6030,30 +6086,44 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Zach Davidson (BUF)</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr"/>
+          <t>Jacob Harris (JAC)</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
       <c r="D126" t="n">
-        <v>-44</v>
+        <v>-23</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
       </c>
-      <c r="G126" t="inlineStr"/>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -6061,30 +6131,44 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Greg Dulcich (DEN)</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr"/>
+          <t>Brady Russell (SEA)</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
       <c r="D127" t="n">
-        <v>-45</v>
+        <v>-24</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
       </c>
-      <c r="G127" t="inlineStr"/>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -6092,30 +6176,44 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Josh Pederson (JAC)</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr"/>
+          <t>Tyler Kroft (MIA)</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
       <c r="D128" t="n">
-        <v>-46</v>
+        <v>-25</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
       </c>
-      <c r="G128" t="inlineStr"/>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -6123,30 +6221,44 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Jacob Harris (JAC)</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr"/>
+          <t>Patrick Scales (CHI)</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
       <c r="D129" t="n">
-        <v>-47</v>
+        <v>-26</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
       </c>
-      <c r="G129" t="inlineStr"/>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -6154,30 +6266,44 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Jordan Murray (IND)</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr"/>
+          <t>Tyler Ott (BAL)</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
       <c r="D130" t="n">
-        <v>-48</v>
+        <v>-27</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
       </c>
-      <c r="G130" t="inlineStr"/>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -6185,30 +6311,44 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Andrew DePaola (MIN)</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr"/>
+          <t>James Winchester (KC)</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
       <c r="D131" t="n">
-        <v>-49</v>
+        <v>-28</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
       </c>
-      <c r="G131" t="inlineStr"/>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -6216,30 +6356,44 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Patrick Scales (CHI)</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr"/>
+          <t>Andrew DePaola (MIN)</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
       <c r="D132" t="n">
-        <v>-50</v>
+        <v>-29</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
       </c>
-      <c r="G132" t="inlineStr"/>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -6247,30 +6401,44 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Miller Forristall (LAR)</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr"/>
+          <t>Nick Vannett (LAC)</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
       <c r="D133" t="n">
-        <v>-51</v>
+        <v>-30</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
       </c>
-      <c r="G133" t="inlineStr"/>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -6278,30 +6446,44 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Kenny Yeboah (NYJ)</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr"/>
+          <t>Zach Wood (NO)</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
       <c r="D134" t="n">
-        <v>-52</v>
+        <v>-31</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
       </c>
-      <c r="G134" t="inlineStr"/>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -6309,30 +6491,44 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Tre' McKitty (BUF)</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr"/>
+          <t>Ryan Miller (TB)</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
       <c r="D135" t="n">
-        <v>-53</v>
+        <v>-32</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
       </c>
-      <c r="G135" t="inlineStr"/>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -6340,30 +6536,44 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Tyler Ott (BAL)</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
+          <t>James Mitchell (DET)</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
       <c r="D136" t="n">
-        <v>-54</v>
+        <v>-33</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
       </c>
-      <c r="G136" t="inlineStr"/>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -6371,30 +6581,44 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Princeton Fant (DAL)</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr"/>
+          <t>Hunter Kampmoyer (LAC)</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
       <c r="D137" t="n">
-        <v>-55</v>
+        <v>-34</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
       </c>
-      <c r="G137" t="inlineStr"/>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -6402,30 +6626,44 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Peyton Hendershot (DAL)</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr"/>
+          <t>Tre' McKitty (BUF)</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
       <c r="D138" t="n">
-        <v>-56</v>
+        <v>-35</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
       </c>
-      <c r="G138" t="inlineStr"/>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -6433,30 +6671,44 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Stephen Anderson (LAC)</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr"/>
+          <t>Tanner Conner (MIA)</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
       <c r="D139" t="n">
-        <v>-57</v>
+        <v>-36</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
       </c>
-      <c r="G139" t="inlineStr"/>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -6464,30 +6716,44 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Troy Fumagalli (MIN)</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr"/>
+          <t>David Wells (TB)</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>-0.4</v>
+      </c>
       <c r="D140" t="n">
-        <v>-58</v>
+        <v>-38</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
-      </c>
-      <c r="G140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.2</v>
+      </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
+          <t>1 - 13</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K140" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -6495,12 +6761,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Keith Zinger (ATL)</t>
+          <t>Drake Dunsmore (TB)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="n">
-        <v>-59</v>
+        <v>-38</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
@@ -6511,7 +6777,7 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
@@ -6526,12 +6792,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Justin Snow (IND)</t>
+          <t>Dominique Curry (DET)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="n">
-        <v>-60</v>
+        <v>-39</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
@@ -6542,7 +6808,7 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -6557,12 +6823,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Joey Haynos (MIA)</t>
+          <t>James Dearth (NYJ)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
-        <v>-61</v>
+        <v>-40</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
@@ -6573,7 +6839,7 @@
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -6588,12 +6854,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Marquez Branson (ATL)</t>
+          <t>Tyler Davis (GB)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="n">
-        <v>-62</v>
+        <v>-41</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
@@ -6604,7 +6870,7 @@
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -6619,12 +6885,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Jimmy Graham (NO)</t>
+          <t>Josh Pederson (JAC)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
-        <v>-63</v>
+        <v>-42</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
@@ -6635,7 +6901,7 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
@@ -6650,12 +6916,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Darnell Dinkins (NO)</t>
+          <t>Joey Haynos (MIA)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
-        <v>-64</v>
+        <v>-43</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
@@ -6666,7 +6932,7 @@
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
@@ -6681,12 +6947,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>J.P. Foschi (CIN)</t>
+          <t>Tyler Mabry (SEA)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
-        <v>-65</v>
+        <v>-44</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
@@ -6697,7 +6963,7 @@
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
@@ -6712,12 +6978,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Derek Fine (HOU)</t>
+          <t>Anthony Firkser (DET)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
-        <v>-66</v>
+        <v>-45</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
@@ -6728,7 +6994,7 @@
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -6743,12 +7009,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Zach Ertz (ARI)</t>
+          <t>Troy Fumagalli (MIN)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
-        <v>-67</v>
+        <v>-46</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
@@ -6759,7 +7025,7 @@
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
@@ -6774,12 +7040,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Jordan Matthews (CAR)</t>
+          <t>Keith Zinger (ATL)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="n">
-        <v>-68</v>
+        <v>-47</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
@@ -6790,7 +7056,7 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -6805,12 +7071,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>James Dearth (NYJ)</t>
+          <t>Justin Snow (IND)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
-        <v>-69</v>
+        <v>-48</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
@@ -6821,7 +7087,7 @@
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -6836,12 +7102,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>David Wells (TB)</t>
+          <t>Marquez Branson (ATL)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
-        <v>-70</v>
+        <v>-49</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
@@ -6852,7 +7118,7 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
@@ -6867,12 +7133,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Anthony Firkser (DET)</t>
+          <t>Brad Cottam (KC)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
-        <v>-71</v>
+        <v>-50</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
@@ -6883,7 +7149,7 @@
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
@@ -6898,12 +7164,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Drake Dunsmore (TB)</t>
+          <t>Darnell Dinkins (NO)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="n">
-        <v>-72</v>
+        <v>-51</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
@@ -6914,7 +7180,7 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
@@ -6929,12 +7195,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Dominique Curry (DET)</t>
+          <t>J.P. Foschi (CIN)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
-        <v>-73</v>
+        <v>-52</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
@@ -6945,7 +7211,7 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
@@ -6960,12 +7226,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Brad Cottam (KC)</t>
+          <t>Derek Fine (HOU)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="n">
-        <v>-74</v>
+        <v>-53</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
@@ -6976,7 +7242,7 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
@@ -6991,12 +7257,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Michael Jacobson (NO)</t>
+          <t>Jordan Matthews (CAR)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="n">
-        <v>-75</v>
+        <v>-54</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
@@ -7007,7 +7273,7 @@
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
@@ -7022,12 +7288,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Thomas Odukoya (TEN)</t>
+          <t>Kenny Yeboah (NYJ)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="n">
-        <v>-76</v>
+        <v>-55</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
@@ -7038,7 +7304,7 @@
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
@@ -7053,12 +7319,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Matthew Orzech (GB)</t>
+          <t>Armani Rogers (WAS)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="n">
-        <v>-77</v>
+        <v>-56</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
@@ -7069,7 +7335,7 @@
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
@@ -7084,12 +7350,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Matt Sokol (NE)</t>
+          <t>Nick Muse (MIN)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="n">
-        <v>-78</v>
+        <v>-57</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
@@ -7100,7 +7366,7 @@
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
@@ -7115,12 +7381,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Jody Fortson (KC)</t>
+          <t>Gerrit Prince (KC)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="n">
-        <v>-79</v>
+        <v>-58</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
@@ -7131,7 +7397,7 @@
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I161" t="inlineStr"/>
@@ -7146,12 +7412,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Tyler Mabry (SEA)</t>
+          <t>Nikola Kalinic (LAR)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
-        <v>-80</v>
+        <v>-59</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
@@ -7162,7 +7428,7 @@
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I162" t="inlineStr"/>
@@ -7177,12 +7443,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Tyler Davis (GB)</t>
+          <t>Matthew Orzech (GB)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="n">
-        <v>-81</v>
+        <v>-60</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
@@ -7193,7 +7459,7 @@
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I163" t="inlineStr"/>
@@ -7208,12 +7474,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Armani Rogers (WAS)</t>
+          <t>Jody Fortson (KC)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="n">
-        <v>-82</v>
+        <v>-61</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
@@ -7224,7 +7490,7 @@
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I164" t="inlineStr"/>
@@ -7239,12 +7505,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Zach Gentry (CIN)</t>
+          <t>Jordan Murray (IND)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="n">
-        <v>-83</v>
+        <v>-62</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
@@ -7255,7 +7521,7 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I165" t="inlineStr"/>
@@ -7270,12 +7536,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Dawson Knox (BUF)</t>
+          <t>Princeton Fant (DAL)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="n">
-        <v>-84</v>
+        <v>-63</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
@@ -7286,7 +7552,7 @@
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I166" t="inlineStr"/>
@@ -7301,12 +7567,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Feleipe Franks (ATL)</t>
+          <t>Stephen Carlson (CHI)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="n">
-        <v>-85</v>
+        <v>-64</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
@@ -7317,7 +7583,7 @@
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I167" t="inlineStr"/>
@@ -7332,12 +7598,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Nick Bowers (MIA)</t>
+          <t>Zach Gentry (CIN)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="n">
-        <v>-86</v>
+        <v>-65</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
@@ -7348,7 +7614,7 @@
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I168" t="inlineStr"/>
@@ -7363,12 +7629,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Tommy Hudson (NO)</t>
+          <t>Feleipe Franks (ATL)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="n">
-        <v>-87</v>
+        <v>-66</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
@@ -7379,7 +7645,7 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I169" t="inlineStr"/>
@@ -7394,12 +7660,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Scotty Washington (BAL)</t>
+          <t>Rashod Berry (IND)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="n">
-        <v>-88</v>
+        <v>-67</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
@@ -7410,7 +7676,7 @@
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I170" t="inlineStr"/>
@@ -7425,12 +7691,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Rashod Berry (IND)</t>
+          <t>Cameron Latu (SF)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="n">
-        <v>-89</v>
+        <v>-68</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
@@ -7441,7 +7707,7 @@
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I171" t="inlineStr"/>
@@ -7456,12 +7722,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Stephen Carlson (CHI)</t>
+          <t>Bernhard Seikovits (ARI)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="n">
-        <v>-90</v>
+        <v>-69</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
@@ -7472,7 +7738,7 @@
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I172" t="inlineStr"/>
@@ -7487,12 +7753,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Tanner Taula (TB)</t>
+          <t>Travis Vokolek (BAL)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
-        <v>-91</v>
+        <v>-70</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
@@ -7503,7 +7769,7 @@
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I173" t="inlineStr"/>
@@ -7518,12 +7784,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Cameron Latu (SF)</t>
+          <t>Zach Davidson (BUF)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="n">
-        <v>-92</v>
+        <v>-71</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
@@ -7534,7 +7800,7 @@
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I174" t="inlineStr"/>
@@ -7549,12 +7815,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Ryan Miller (TB)</t>
+          <t>Cole Fotheringham (LV)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="n">
-        <v>-93</v>
+        <v>-72</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
@@ -7565,7 +7831,7 @@
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I175" t="inlineStr"/>
@@ -7580,12 +7846,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Cole Fotheringham (LV)</t>
+          <t>Zaire Mitchell-Paden (CLE)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="n">
-        <v>-94</v>
+        <v>-73</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
@@ -7596,7 +7862,7 @@
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I176" t="inlineStr"/>
@@ -7611,12 +7877,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Zaire Mitchell-Paden (CLE)</t>
+          <t>Jake Tonges (SF)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="n">
-        <v>-95</v>
+        <v>-74</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
@@ -7627,7 +7893,7 @@
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I177" t="inlineStr"/>
@@ -7642,12 +7908,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Jake Tonges (SF)</t>
+          <t>Curtis Hodges (WAS)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="n">
-        <v>-96</v>
+        <v>-75</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
@@ -7658,7 +7924,7 @@
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I178" t="inlineStr"/>
@@ -7673,12 +7939,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Travis Vokolek (BAL)</t>
+          <t>Scotty Washington (BAL)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
-        <v>-97</v>
+        <v>-76</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
@@ -7689,7 +7955,7 @@
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I179" t="inlineStr"/>
@@ -7704,12 +7970,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Blake Whiteheart (ARI)</t>
+          <t>Ryan Jones (NYG)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
-        <v>-98</v>
+        <v>-77</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
@@ -7720,7 +7986,7 @@
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I180" t="inlineStr"/>
@@ -7735,12 +8001,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Joel Wilson (GB)</t>
+          <t>Tommy Hudson (NO)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
-        <v>-99</v>
+        <v>-78</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
@@ -7751,7 +8017,7 @@
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I181" t="inlineStr"/>
@@ -7766,12 +8032,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Nick Muse (MIN)</t>
+          <t>Joel Wilson (GB)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="n">
-        <v>-100</v>
+        <v>-79</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
@@ -7782,7 +8048,7 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I182" t="inlineStr"/>
@@ -7797,12 +8063,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Brayden Willis (SF)</t>
+          <t>Thomas Odukoya (TEN)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="n">
-        <v>-101</v>
+        <v>-80</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
@@ -7813,7 +8079,7 @@
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I183" t="inlineStr"/>
@@ -7828,12 +8094,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Zack Kuntz (NYJ)</t>
+          <t>Jelani Woods (IND)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="n">
-        <v>-102</v>
+        <v>-81</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
@@ -7844,7 +8110,7 @@
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I184" t="inlineStr"/>
@@ -7859,12 +8125,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Tanner Conner (MIA)</t>
+          <t>Tanner Taula (TB)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="n">
-        <v>-103</v>
+        <v>-82</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -7875,7 +8141,7 @@
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I185" t="inlineStr"/>
@@ -7890,12 +8156,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Teagan Quitoriano (HOU)</t>
+          <t>Blake Whiteheart (ARI)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="n">
-        <v>-104</v>
+        <v>-83</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
@@ -7906,7 +8172,7 @@
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I186" t="inlineStr"/>
@@ -7921,12 +8187,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Nikola Kalinic (LAR)</t>
+          <t>Nick Bowers (MIA)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="n">
-        <v>-105</v>
+        <v>-84</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -7937,7 +8203,7 @@
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I187" t="inlineStr"/>
@@ -7952,12 +8218,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Gerrit Prince (KC)</t>
+          <t>Shane Zylstra (DET)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="n">
-        <v>-106</v>
+        <v>-85</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
@@ -7968,7 +8234,7 @@
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I188" t="inlineStr"/>
@@ -7983,12 +8249,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Jelani Woods (IND)</t>
+          <t>Michael Jacobson (NO)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="n">
-        <v>-107</v>
+        <v>-86</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
@@ -7999,7 +8265,7 @@
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>1 - 13</t>
         </is>
       </c>
       <c r="I189" t="inlineStr"/>
@@ -8008,99 +8274,6 @@
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr"/>
     </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>189</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Curtis Hodges (WAS)</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr"/>
-      <c r="D190" t="n">
-        <v>-108</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0</v>
-      </c>
-      <c r="F190" t="n">
-        <v>0</v>
-      </c>
-      <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>190</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Ryan Jones (NYG)</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr"/>
-      <c r="D191" t="n">
-        <v>-109</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0</v>
-      </c>
-      <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>191</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Darren Waller (NYG)</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr"/>
-      <c r="D192" t="n">
-        <v>-110</v>
-      </c>
-      <c r="E192" t="n">
-        <v>0</v>
-      </c>
-      <c r="F192" t="n">
-        <v>0</v>
-      </c>
-      <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
